--- a/Files/GH/cshop/B2C商城-页面清单-V3.0.xlsx
+++ b/Files/GH/cshop/B2C商城-页面清单-V3.0.xlsx
@@ -768,6 +768,9 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -781,9 +784,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1109,7 +1109,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="24.95" customHeight="1"/>
@@ -1122,13 +1122,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="47.1" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:5" ht="30.95" customHeight="1">
       <c r="A2" s="10" t="s">
@@ -1417,7 +1417,7 @@
       <c r="D20" s="24">
         <v>1</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="30" t="s">
         <v>67</v>
       </c>
       <c r="F20" s="15"/>
@@ -1435,7 +1435,7 @@
       <c r="D21" s="24">
         <v>0.5</v>
       </c>
-      <c r="E21" s="29"/>
+      <c r="E21" s="30"/>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" ht="24.95" customHeight="1">
@@ -1451,7 +1451,7 @@
       <c r="D22" s="24">
         <v>0.5</v>
       </c>
-      <c r="E22" s="29"/>
+      <c r="E22" s="30"/>
     </row>
     <row r="23" spans="1:6" ht="24.95" customHeight="1">
       <c r="A23" s="6">
@@ -1466,7 +1466,7 @@
       <c r="D23" s="24">
         <v>0.5</v>
       </c>
-      <c r="E23" s="29"/>
+      <c r="E23" s="30"/>
     </row>
     <row r="24" spans="1:6" ht="24.95" customHeight="1">
       <c r="A24" s="6">
@@ -1481,7 +1481,7 @@
       <c r="D24" s="24">
         <v>1</v>
       </c>
-      <c r="E24" s="29"/>
+      <c r="E24" s="30"/>
     </row>
     <row r="25" spans="1:6" ht="24.95" customHeight="1">
       <c r="A25" s="6">
@@ -1730,7 +1730,7 @@
       <c r="B41" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="34">
+      <c r="C41" s="29">
         <v>0.2</v>
       </c>
       <c r="D41" s="8">
@@ -1745,7 +1745,7 @@
       <c r="B42" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="34">
+      <c r="C42" s="29">
         <v>0.2</v>
       </c>
       <c r="D42" s="8">
@@ -1760,7 +1760,7 @@
       <c r="B43" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="29">
         <v>0.3</v>
       </c>
       <c r="D43" s="8">
@@ -1775,7 +1775,7 @@
       <c r="B44" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="29">
         <v>0.2</v>
       </c>
       <c r="D44" s="26">
@@ -1790,7 +1790,7 @@
       <c r="B45" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="29">
         <v>0.2</v>
       </c>
       <c r="D45" s="26">
@@ -1869,12 +1869,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" ht="24.95" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -2142,7 +2142,7 @@
       <c r="C23" s="19">
         <v>1</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="30" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2156,7 +2156,7 @@
       <c r="C24" s="19">
         <v>0.5</v>
       </c>
-      <c r="D24" s="29"/>
+      <c r="D24" s="30"/>
     </row>
     <row r="25" spans="1:4" ht="24.95" customHeight="1">
       <c r="A25" s="2">
@@ -2168,7 +2168,7 @@
       <c r="C25" s="19">
         <v>0.5</v>
       </c>
-      <c r="D25" s="29"/>
+      <c r="D25" s="30"/>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1">
       <c r="A26" s="2">
@@ -2180,7 +2180,7 @@
       <c r="C26" s="19">
         <v>0.5</v>
       </c>
-      <c r="D26" s="29"/>
+      <c r="D26" s="30"/>
     </row>
     <row r="27" spans="1:4" ht="24.95" customHeight="1">
       <c r="A27" s="2">
@@ -2192,7 +2192,7 @@
       <c r="C27" s="19">
         <v>1</v>
       </c>
-      <c r="D27" s="29"/>
+      <c r="D27" s="30"/>
     </row>
     <row r="28" spans="1:4" ht="24.95" customHeight="1">
       <c r="A28" s="2">

--- a/Files/GH/cshop/B2C商城-页面清单-V3.0.xlsx
+++ b/Files/GH/cshop/B2C商城-页面清单-V3.0.xlsx
@@ -1108,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="24.95" customHeight="1"/>
@@ -1805,7 +1805,7 @@
       <c r="B46" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="29">
         <v>0.1</v>
       </c>
       <c r="D46" s="26">
@@ -1820,7 +1820,7 @@
       <c r="B47" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="29">
         <v>0.3</v>
       </c>
       <c r="D47" s="26">

--- a/Files/GH/cshop/B2C商城-页面清单-V3.0.xlsx
+++ b/Files/GH/cshop/B2C商城-页面清单-V3.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\demo\Files\GH\cshop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\task\Files\GH\cshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -572,7 +572,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -618,6 +618,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,7 +686,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -784,6 +790,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1108,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="24.95" customHeight="1"/>
@@ -1157,7 +1166,7 @@
       <c r="C3" s="27">
         <v>1</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="35">
         <v>3</v>
       </c>
       <c r="E3" s="16"/>
@@ -1172,7 +1181,7 @@
       <c r="C4" s="27">
         <v>0.2</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="35">
         <v>0.5</v>
       </c>
       <c r="E4" s="16"/>
@@ -1187,7 +1196,7 @@
       <c r="C5" s="27">
         <v>0.3</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="35">
         <v>0.3</v>
       </c>
       <c r="E5" s="21" t="s">
@@ -1204,7 +1213,7 @@
       <c r="C6" s="27">
         <v>0.2</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="35">
         <v>0.5</v>
       </c>
       <c r="E6" s="16"/>
@@ -1219,7 +1228,7 @@
       <c r="C7" s="27">
         <v>0.3</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="35">
         <v>0.5</v>
       </c>
       <c r="E7" s="16"/>
@@ -1234,7 +1243,7 @@
       <c r="C8" s="27">
         <v>0.4</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="35">
         <v>1</v>
       </c>
       <c r="E8" s="16"/>

--- a/Files/GH/cshop/B2C商城-页面清单-V3.0.xlsx
+++ b/Files/GH/cshop/B2C商城-页面清单-V3.0.xlsx
@@ -777,6 +777,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -790,9 +793,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1118,7 +1118,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="24.95" customHeight="1"/>
@@ -1131,13 +1131,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="47.1" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" ht="30.95" customHeight="1">
       <c r="A2" s="10" t="s">
@@ -1166,7 +1166,7 @@
       <c r="C3" s="27">
         <v>1</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="30">
         <v>3</v>
       </c>
       <c r="E3" s="16"/>
@@ -1181,7 +1181,7 @@
       <c r="C4" s="27">
         <v>0.2</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="30">
         <v>0.5</v>
       </c>
       <c r="E4" s="16"/>
@@ -1196,7 +1196,7 @@
       <c r="C5" s="27">
         <v>0.3</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="30">
         <v>0.3</v>
       </c>
       <c r="E5" s="21" t="s">
@@ -1213,7 +1213,7 @@
       <c r="C6" s="27">
         <v>0.2</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="30">
         <v>0.5</v>
       </c>
       <c r="E6" s="16"/>
@@ -1228,7 +1228,7 @@
       <c r="C7" s="27">
         <v>0.3</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="30">
         <v>0.5</v>
       </c>
       <c r="E7" s="16"/>
@@ -1243,7 +1243,7 @@
       <c r="C8" s="27">
         <v>0.4</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="30">
         <v>1</v>
       </c>
       <c r="E8" s="16"/>
@@ -1258,7 +1258,7 @@
       <c r="C9" s="27">
         <v>0.1</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="30">
         <v>1</v>
       </c>
       <c r="E9" s="16"/>
@@ -1273,7 +1273,7 @@
       <c r="C10" s="27">
         <v>0.5</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="30">
         <v>1.5</v>
       </c>
       <c r="E10" s="16"/>
@@ -1288,7 +1288,7 @@
       <c r="C11" s="27">
         <v>0.3</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="30">
         <v>1.5</v>
       </c>
       <c r="E11" s="16"/>
@@ -1426,7 +1426,7 @@
       <c r="D20" s="24">
         <v>1</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="31" t="s">
         <v>67</v>
       </c>
       <c r="F20" s="15"/>
@@ -1444,7 +1444,7 @@
       <c r="D21" s="24">
         <v>0.5</v>
       </c>
-      <c r="E21" s="30"/>
+      <c r="E21" s="31"/>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" ht="24.95" customHeight="1">
@@ -1460,7 +1460,7 @@
       <c r="D22" s="24">
         <v>0.5</v>
       </c>
-      <c r="E22" s="30"/>
+      <c r="E22" s="31"/>
     </row>
     <row r="23" spans="1:6" ht="24.95" customHeight="1">
       <c r="A23" s="6">
@@ -1475,7 +1475,7 @@
       <c r="D23" s="24">
         <v>0.5</v>
       </c>
-      <c r="E23" s="30"/>
+      <c r="E23" s="31"/>
     </row>
     <row r="24" spans="1:6" ht="24.95" customHeight="1">
       <c r="A24" s="6">
@@ -1490,7 +1490,7 @@
       <c r="D24" s="24">
         <v>1</v>
       </c>
-      <c r="E24" s="30"/>
+      <c r="E24" s="31"/>
     </row>
     <row r="25" spans="1:6" ht="24.95" customHeight="1">
       <c r="A25" s="6">
@@ -1878,12 +1878,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4" ht="24.95" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -2151,7 +2151,7 @@
       <c r="C23" s="19">
         <v>1</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="31" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2165,7 +2165,7 @@
       <c r="C24" s="19">
         <v>0.5</v>
       </c>
-      <c r="D24" s="30"/>
+      <c r="D24" s="31"/>
     </row>
     <row r="25" spans="1:4" ht="24.95" customHeight="1">
       <c r="A25" s="2">
@@ -2177,7 +2177,7 @@
       <c r="C25" s="19">
         <v>0.5</v>
       </c>
-      <c r="D25" s="30"/>
+      <c r="D25" s="31"/>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1">
       <c r="A26" s="2">
@@ -2189,7 +2189,7 @@
       <c r="C26" s="19">
         <v>0.5</v>
       </c>
-      <c r="D26" s="30"/>
+      <c r="D26" s="31"/>
     </row>
     <row r="27" spans="1:4" ht="24.95" customHeight="1">
       <c r="A27" s="2">
@@ -2201,7 +2201,7 @@
       <c r="C27" s="19">
         <v>1</v>
       </c>
-      <c r="D27" s="30"/>
+      <c r="D27" s="31"/>
     </row>
     <row r="28" spans="1:4" ht="24.95" customHeight="1">
       <c r="A28" s="2">

--- a/Files/GH/cshop/B2C商城-页面清单-V3.0.xlsx
+++ b/Files/GH/cshop/B2C商城-页面清单-V3.0.xlsx
@@ -1117,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="24.95" customHeight="1"/>
@@ -1303,7 +1303,7 @@
       <c r="C12" s="27">
         <v>0.5</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="30">
         <v>1.5</v>
       </c>
       <c r="E12" s="16"/>
@@ -1318,7 +1318,7 @@
       <c r="C13" s="27">
         <v>0.2</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="30">
         <v>0.5</v>
       </c>
       <c r="E13" s="16"/>
@@ -1333,7 +1333,7 @@
       <c r="C14" s="27">
         <v>0.4</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="30">
         <v>1</v>
       </c>
       <c r="E14" s="16"/>
@@ -1348,7 +1348,7 @@
       <c r="C15" s="27">
         <v>0.3</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="30">
         <v>0.5</v>
       </c>
       <c r="E15" s="16"/>
@@ -1363,7 +1363,7 @@
       <c r="C16" s="27">
         <v>0.3</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="30">
         <v>1</v>
       </c>
       <c r="E16" s="16"/>
@@ -1378,7 +1378,7 @@
       <c r="C17" s="28">
         <v>0.1</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="30">
         <v>0.4</v>
       </c>
       <c r="E17" s="16"/>
@@ -1393,7 +1393,7 @@
       <c r="C18" s="28">
         <v>0.2</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="30">
         <v>0.5</v>
       </c>
       <c r="E18" s="16"/>
@@ -1408,7 +1408,7 @@
       <c r="C19" s="28">
         <v>0.2</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="30">
         <v>0.5</v>
       </c>
       <c r="E19" s="16"/>
@@ -1423,7 +1423,7 @@
       <c r="C20" s="28">
         <v>0.2</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="30">
         <v>1</v>
       </c>
       <c r="E20" s="31" t="s">
@@ -1502,7 +1502,7 @@
       <c r="C25" s="6">
         <v>0.2</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="30">
         <v>0.5</v>
       </c>
       <c r="E25" s="16"/>
@@ -1517,7 +1517,7 @@
       <c r="C26" s="6">
         <v>0.1</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="30">
         <v>0.5</v>
       </c>
       <c r="E26" s="16"/>

--- a/Files/GH/cshop/B2C商城-页面清单-V3.0.xlsx
+++ b/Files/GH/cshop/B2C商城-页面清单-V3.0.xlsx
@@ -572,7 +572,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -624,6 +624,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,7 +692,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -711,9 +717,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -778,6 +781,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1117,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="24.95" customHeight="1"/>
@@ -1131,28 +1140,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="47.1" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" ht="30.95" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1163,13 +1172,13 @@
       <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="27">
-        <v>1</v>
-      </c>
-      <c r="D3" s="30">
+      <c r="C3" s="26">
+        <v>1</v>
+      </c>
+      <c r="D3" s="29">
         <v>3</v>
       </c>
-      <c r="E3" s="16"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5" ht="24.95" customHeight="1">
       <c r="A4" s="6">
@@ -1178,13 +1187,13 @@
       <c r="B4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="26">
         <v>0.2</v>
       </c>
-      <c r="D4" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="E4" s="16"/>
+      <c r="D4" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5" ht="24.95" customHeight="1">
       <c r="A5" s="6">
@@ -1193,13 +1202,13 @@
       <c r="B5" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="26">
         <v>0.3</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="29">
         <v>0.3</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="20" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1210,13 +1219,13 @@
       <c r="B6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="26">
         <v>0.2</v>
       </c>
-      <c r="D6" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="16"/>
+      <c r="D6" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:5" ht="24.95" customHeight="1">
       <c r="A7" s="6">
@@ -1225,13 +1234,13 @@
       <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="26">
         <v>0.3</v>
       </c>
-      <c r="D7" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="16"/>
+      <c r="D7" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5" ht="24.95" customHeight="1">
       <c r="A8" s="6">
@@ -1240,13 +1249,13 @@
       <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="26">
         <v>0.4</v>
       </c>
-      <c r="D8" s="30">
-        <v>1</v>
-      </c>
-      <c r="E8" s="16"/>
+      <c r="D8" s="29">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5" ht="24.95" customHeight="1">
       <c r="A9" s="6">
@@ -1255,13 +1264,13 @@
       <c r="B9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="26">
         <v>0.1</v>
       </c>
-      <c r="D9" s="30">
-        <v>1</v>
-      </c>
-      <c r="E9" s="16"/>
+      <c r="D9" s="29">
+        <v>1</v>
+      </c>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5" ht="24.95" customHeight="1">
       <c r="A10" s="6">
@@ -1270,13 +1279,13 @@
       <c r="B10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="30">
+      <c r="C10" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="29">
         <v>1.5</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:5" ht="24.95" customHeight="1">
       <c r="A11" s="6">
@@ -1285,13 +1294,13 @@
       <c r="B11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="26">
         <v>0.3</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="29">
         <v>1.5</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:5" ht="24.95" customHeight="1">
       <c r="A12" s="6">
@@ -1300,13 +1309,13 @@
       <c r="B12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="30">
+      <c r="C12" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="29">
         <v>1.5</v>
       </c>
-      <c r="E12" s="16"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:5" ht="24.95" customHeight="1">
       <c r="A13" s="6">
@@ -1315,13 +1324,13 @@
       <c r="B13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="26">
         <v>0.2</v>
       </c>
-      <c r="D13" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="16"/>
+      <c r="D13" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:5" ht="24.95" customHeight="1">
       <c r="A14" s="6">
@@ -1330,13 +1339,13 @@
       <c r="B14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="26">
         <v>0.4</v>
       </c>
-      <c r="D14" s="30">
-        <v>1</v>
-      </c>
-      <c r="E14" s="16"/>
+      <c r="D14" s="29">
+        <v>1</v>
+      </c>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:5" ht="24.95" customHeight="1">
       <c r="A15" s="6">
@@ -1345,13 +1354,13 @@
       <c r="B15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="26">
         <v>0.3</v>
       </c>
-      <c r="D15" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="E15" s="16"/>
+      <c r="D15" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:5" ht="24.95" customHeight="1">
       <c r="A16" s="6">
@@ -1360,137 +1369,137 @@
       <c r="B16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="26">
         <v>0.3</v>
       </c>
-      <c r="D16" s="30">
-        <v>1</v>
-      </c>
-      <c r="E16" s="16"/>
+      <c r="D16" s="29">
+        <v>1</v>
+      </c>
+      <c r="E16" s="15"/>
     </row>
     <row r="17" spans="1:6" ht="24.95" customHeight="1">
       <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="27">
         <v>0.1</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="29">
         <v>0.4</v>
       </c>
-      <c r="E17" s="16"/>
+      <c r="E17" s="15"/>
     </row>
     <row r="18" spans="1:6" ht="24.95" customHeight="1">
       <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="27">
         <v>0.2</v>
       </c>
-      <c r="D18" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="E18" s="16"/>
+      <c r="D18" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="15"/>
     </row>
     <row r="19" spans="1:6" ht="24.95" customHeight="1">
       <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="27">
         <v>0.2</v>
       </c>
-      <c r="D19" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="E19" s="16"/>
+      <c r="D19" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="15"/>
     </row>
     <row r="20" spans="1:6" ht="24.95" customHeight="1">
       <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="27">
         <v>0.2</v>
       </c>
-      <c r="D20" s="30">
-        <v>1</v>
-      </c>
-      <c r="E20" s="31" t="s">
+      <c r="D20" s="29">
+        <v>1</v>
+      </c>
+      <c r="E20" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="15"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6" ht="24.95" customHeight="1">
       <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="22">
         <v>0.1</v>
       </c>
-      <c r="D21" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="E21" s="31"/>
+      <c r="D21" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="32"/>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" ht="24.95" customHeight="1">
       <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="21">
         <v>0.2</v>
       </c>
-      <c r="D22" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="E22" s="31"/>
+      <c r="D22" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="32"/>
     </row>
     <row r="23" spans="1:6" ht="24.95" customHeight="1">
       <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="21">
         <v>0.2</v>
       </c>
-      <c r="D23" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="E23" s="31"/>
+      <c r="D23" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:6" ht="24.95" customHeight="1">
       <c r="A24" s="6">
         <v>22</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="21">
         <v>0.2</v>
       </c>
-      <c r="D24" s="24">
-        <v>1</v>
-      </c>
-      <c r="E24" s="31"/>
+      <c r="D24" s="23">
+        <v>1</v>
+      </c>
+      <c r="E24" s="32"/>
     </row>
     <row r="25" spans="1:6" ht="24.95" customHeight="1">
       <c r="A25" s="6">
@@ -1502,10 +1511,10 @@
       <c r="C25" s="6">
         <v>0.2</v>
       </c>
-      <c r="D25" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="E25" s="16"/>
+      <c r="D25" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="15"/>
     </row>
     <row r="26" spans="1:6" ht="24.95" customHeight="1">
       <c r="A26" s="6">
@@ -1517,10 +1526,10 @@
       <c r="C26" s="6">
         <v>0.1</v>
       </c>
-      <c r="D26" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="E26" s="16"/>
+      <c r="D26" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="15"/>
     </row>
     <row r="27" spans="1:6" ht="24.95" customHeight="1">
       <c r="A27" s="6">
@@ -1532,10 +1541,10 @@
       <c r="C27" s="6">
         <v>0.2</v>
       </c>
-      <c r="D27" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E27" s="16"/>
+      <c r="D27" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="15"/>
     </row>
     <row r="28" spans="1:6" ht="24.95" customHeight="1">
       <c r="A28" s="6">
@@ -1547,10 +1556,10 @@
       <c r="C28" s="6">
         <v>0.2</v>
       </c>
-      <c r="D28" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E28" s="16"/>
+      <c r="D28" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:6" ht="24.95" customHeight="1">
       <c r="A29" s="6">
@@ -1562,40 +1571,40 @@
       <c r="C29" s="6">
         <v>0.2</v>
       </c>
-      <c r="D29" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E29" s="16"/>
+      <c r="D29" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="15"/>
     </row>
     <row r="30" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A30" s="6">
+      <c r="A30" s="31">
         <v>28</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="31">
         <v>0.2</v>
       </c>
-      <c r="D30" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E30" s="16"/>
+      <c r="D30" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="15"/>
     </row>
     <row r="31" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A31" s="6">
+      <c r="A31" s="31">
         <v>29</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="31">
         <v>0.1</v>
       </c>
-      <c r="D31" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E31" s="16"/>
+      <c r="D31" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="15"/>
     </row>
     <row r="32" spans="1:6" ht="24.95" customHeight="1">
       <c r="A32" s="6">
@@ -1607,10 +1616,10 @@
       <c r="C32" s="6">
         <v>0.3</v>
       </c>
-      <c r="D32" s="8">
-        <v>1</v>
-      </c>
-      <c r="E32" s="16"/>
+      <c r="D32" s="29">
+        <v>1</v>
+      </c>
+      <c r="E32" s="15"/>
     </row>
     <row r="33" spans="1:5" ht="24.95" customHeight="1">
       <c r="A33" s="6">
@@ -1622,10 +1631,10 @@
       <c r="C33" s="6">
         <v>0.2</v>
       </c>
-      <c r="D33" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E33" s="16"/>
+      <c r="D33" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="24.95" customHeight="1">
       <c r="A34" s="6">
@@ -1637,10 +1646,10 @@
       <c r="C34" s="6">
         <v>0.2</v>
       </c>
-      <c r="D34" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E34" s="16"/>
+      <c r="D34" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="15"/>
     </row>
     <row r="35" spans="1:5" ht="24.95" customHeight="1">
       <c r="A35" s="6">
@@ -1652,10 +1661,10 @@
       <c r="C35" s="6">
         <v>0.2</v>
       </c>
-      <c r="D35" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E35" s="16"/>
+      <c r="D35" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E35" s="15"/>
     </row>
     <row r="36" spans="1:5" ht="24.95" customHeight="1">
       <c r="A36" s="6">
@@ -1667,10 +1676,10 @@
       <c r="C36" s="6">
         <v>0.1</v>
       </c>
-      <c r="D36" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E36" s="16"/>
+      <c r="D36" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E36" s="15"/>
     </row>
     <row r="37" spans="1:5" ht="24" customHeight="1">
       <c r="A37" s="6">
@@ -1682,10 +1691,10 @@
       <c r="C37" s="6">
         <v>0.1</v>
       </c>
-      <c r="D37" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E37" s="16"/>
+      <c r="D37" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E37" s="15"/>
     </row>
     <row r="38" spans="1:5" ht="24.95" customHeight="1">
       <c r="A38" s="6">
@@ -1697,10 +1706,10 @@
       <c r="C38" s="6">
         <v>0.1</v>
       </c>
-      <c r="D38" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E38" s="16"/>
+      <c r="D38" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="24.95" customHeight="1">
       <c r="A39" s="6">
@@ -1712,10 +1721,10 @@
       <c r="C39" s="6">
         <v>0.1</v>
       </c>
-      <c r="D39" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E39" s="16"/>
+      <c r="D39" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="15"/>
     </row>
     <row r="40" spans="1:5" ht="24.95" customHeight="1">
       <c r="A40" s="6">
@@ -1727,10 +1736,10 @@
       <c r="C40" s="6">
         <v>0.2</v>
       </c>
-      <c r="D40" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E40" s="16"/>
+      <c r="D40" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E40" s="15"/>
     </row>
     <row r="41" spans="1:5" ht="24.95" customHeight="1">
       <c r="A41" s="6">
@@ -1739,13 +1748,13 @@
       <c r="B41" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="29">
+      <c r="C41" s="28">
         <v>0.2</v>
       </c>
-      <c r="D41" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E41" s="16"/>
+      <c r="D41" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E41" s="15"/>
     </row>
     <row r="42" spans="1:5" ht="24.95" customHeight="1">
       <c r="A42" s="6">
@@ -1754,13 +1763,13 @@
       <c r="B42" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="29">
+      <c r="C42" s="28">
         <v>0.2</v>
       </c>
-      <c r="D42" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E42" s="16"/>
+      <c r="D42" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E42" s="15"/>
     </row>
     <row r="43" spans="1:5" ht="24.95" customHeight="1">
       <c r="A43" s="6">
@@ -1769,13 +1778,13 @@
       <c r="B43" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="29">
+      <c r="C43" s="28">
         <v>0.3</v>
       </c>
-      <c r="D43" s="8">
-        <v>1</v>
-      </c>
-      <c r="E43" s="16"/>
+      <c r="D43" s="29">
+        <v>1</v>
+      </c>
+      <c r="E43" s="15"/>
     </row>
     <row r="44" spans="1:5" ht="24.95" customHeight="1">
       <c r="A44" s="6">
@@ -1784,13 +1793,13 @@
       <c r="B44" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="29">
+      <c r="C44" s="28">
         <v>0.2</v>
       </c>
-      <c r="D44" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="E44" s="16"/>
+      <c r="D44" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="E44" s="15"/>
     </row>
     <row r="45" spans="1:5" ht="24.95" customHeight="1">
       <c r="A45" s="6">
@@ -1799,13 +1808,13 @@
       <c r="B45" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="29">
+      <c r="C45" s="28">
         <v>0.2</v>
       </c>
-      <c r="D45" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="E45" s="16"/>
+      <c r="D45" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="24.95" customHeight="1">
       <c r="A46" s="6">
@@ -1814,13 +1823,13 @@
       <c r="B46" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="29">
+      <c r="C46" s="28">
         <v>0.1</v>
       </c>
-      <c r="D46" s="26">
+      <c r="D46" s="25">
         <v>0.3</v>
       </c>
-      <c r="E46" s="16"/>
+      <c r="E46" s="15"/>
     </row>
     <row r="47" spans="1:5" ht="24.95" customHeight="1">
       <c r="A47" s="6">
@@ -1829,26 +1838,26 @@
       <c r="B47" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="29">
+      <c r="C47" s="28">
         <v>0.3</v>
       </c>
-      <c r="D47" s="26">
-        <v>1</v>
-      </c>
-      <c r="E47" s="16"/>
+      <c r="D47" s="25">
+        <v>1</v>
+      </c>
+      <c r="E47" s="15"/>
     </row>
     <row r="49" spans="3:4" ht="44.1" customHeight="1">
-      <c r="C49" s="25" t="str">
+      <c r="C49" s="24" t="str">
         <f>"设计合计："&amp;SUM(C3:C46)&amp;"天"</f>
         <v>设计合计：10.3天</v>
       </c>
-      <c r="D49" s="13" t="str">
+      <c r="D49" s="12" t="str">
         <f>"前端合计："&amp;SUM(D3:D46)&amp;"天"</f>
         <v>前端合计：31天</v>
       </c>
     </row>
     <row r="50" spans="3:4" ht="24.95" customHeight="1">
-      <c r="D50" s="13"/>
+      <c r="D50" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1878,24 +1887,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4" ht="24.95" customHeight="1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1906,10 +1915,10 @@
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>4</v>
       </c>
-      <c r="D3" s="20"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:4" ht="24.95" customHeight="1">
       <c r="A4" s="2">
@@ -1918,10 +1927,10 @@
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12">
-        <v>1</v>
-      </c>
-      <c r="D4" s="21" t="s">
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1932,10 +1941,10 @@
       <c r="B5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="20"/>
+      <c r="C5" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:4" ht="24.95" customHeight="1">
       <c r="A6" s="2">
@@ -1944,10 +1953,10 @@
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="20"/>
+      <c r="C6" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="19"/>
     </row>
     <row r="7" spans="1:4" ht="24.95" customHeight="1">
       <c r="A7" s="2">
@@ -1956,10 +1965,10 @@
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="12">
-        <v>1</v>
-      </c>
-      <c r="D7" s="20"/>
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:4" ht="24.95" customHeight="1">
       <c r="A8" s="2">
@@ -1968,10 +1977,10 @@
       <c r="B8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>1.5</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="19"/>
     </row>
     <row r="9" spans="1:4" ht="24.95" customHeight="1">
       <c r="A9" s="2">
@@ -1980,10 +1989,10 @@
       <c r="B9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>3</v>
       </c>
-      <c r="D9" s="20"/>
+      <c r="D9" s="19"/>
     </row>
     <row r="10" spans="1:4" ht="24.95" customHeight="1">
       <c r="A10" s="2">
@@ -1992,10 +2001,10 @@
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>2</v>
       </c>
-      <c r="D10" s="20"/>
+      <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:4" ht="24.95" customHeight="1">
       <c r="A11" s="2">
@@ -2004,10 +2013,10 @@
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>2</v>
       </c>
-      <c r="D11" s="20"/>
+      <c r="D11" s="19"/>
     </row>
     <row r="12" spans="1:4" ht="24.95" customHeight="1">
       <c r="A12" s="2">
@@ -2016,10 +2025,10 @@
       <c r="B12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="20"/>
+      <c r="C12" s="11">
+        <v>1</v>
+      </c>
+      <c r="D12" s="19"/>
     </row>
     <row r="13" spans="1:4" ht="24.95" customHeight="1">
       <c r="A13" s="2">
@@ -2028,10 +2037,10 @@
       <c r="B13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="D13" s="20"/>
+      <c r="C13" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="19"/>
     </row>
     <row r="14" spans="1:4" ht="24.95" customHeight="1">
       <c r="A14" s="2">
@@ -2040,10 +2049,10 @@
       <c r="B14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="12">
-        <v>1</v>
-      </c>
-      <c r="D14" s="20"/>
+      <c r="C14" s="11">
+        <v>1</v>
+      </c>
+      <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:4" ht="24.95" customHeight="1">
       <c r="A15" s="2">
@@ -2052,10 +2061,10 @@
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="12">
-        <v>1</v>
-      </c>
-      <c r="D15" s="20"/>
+      <c r="C15" s="11">
+        <v>1</v>
+      </c>
+      <c r="D15" s="19"/>
     </row>
     <row r="16" spans="1:4" ht="24.95" customHeight="1">
       <c r="A16" s="2">
@@ -2064,10 +2073,10 @@
       <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>1.5</v>
       </c>
-      <c r="D16" s="20"/>
+      <c r="D16" s="19"/>
     </row>
     <row r="17" spans="1:4" ht="24.95" customHeight="1">
       <c r="A17" s="2">
@@ -2076,10 +2085,10 @@
       <c r="B17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>1.5</v>
       </c>
-      <c r="D17" s="20"/>
+      <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:4" ht="24.95" customHeight="1">
       <c r="A18" s="2">
@@ -2088,10 +2097,10 @@
       <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="12">
-        <v>1</v>
-      </c>
-      <c r="D18" s="20"/>
+      <c r="C18" s="11">
+        <v>1</v>
+      </c>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:4" ht="24.95" customHeight="1">
       <c r="A19" s="2">
@@ -2100,10 +2109,10 @@
       <c r="B19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="12">
-        <v>1</v>
-      </c>
-      <c r="D19" s="20"/>
+      <c r="C19" s="11">
+        <v>1</v>
+      </c>
+      <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:4" ht="24.95" customHeight="1">
       <c r="A20" s="2">
@@ -2112,10 +2121,10 @@
       <c r="B20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="D20" s="20"/>
+      <c r="C20" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="19"/>
     </row>
     <row r="21" spans="1:4" ht="24.95" customHeight="1">
       <c r="A21" s="2">
@@ -2124,10 +2133,10 @@
       <c r="B21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="D21" s="20"/>
+      <c r="C21" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="19"/>
     </row>
     <row r="22" spans="1:4" ht="24.95" customHeight="1">
       <c r="A22" s="2">
@@ -2136,22 +2145,22 @@
       <c r="B22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="20"/>
+      <c r="C22" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:4" ht="24.95" customHeight="1">
       <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="19">
-        <v>1</v>
-      </c>
-      <c r="D23" s="31" t="s">
+      <c r="C23" s="18">
+        <v>1</v>
+      </c>
+      <c r="D23" s="32" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2159,49 +2168,49 @@
       <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="D24" s="31"/>
+      <c r="C24" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="32"/>
     </row>
     <row r="25" spans="1:4" ht="24.95" customHeight="1">
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="D25" s="31"/>
+      <c r="C25" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="32"/>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1">
       <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="D26" s="31"/>
+      <c r="C26" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="32"/>
     </row>
     <row r="27" spans="1:4" ht="24.95" customHeight="1">
       <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="19">
-        <v>1</v>
-      </c>
-      <c r="D27" s="31"/>
+      <c r="C27" s="18">
+        <v>1</v>
+      </c>
+      <c r="D27" s="32"/>
     </row>
     <row r="28" spans="1:4" ht="24.95" customHeight="1">
       <c r="A28" s="2">
@@ -2210,10 +2219,10 @@
       <c r="B28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="12">
-        <v>1</v>
-      </c>
-      <c r="D28" s="20"/>
+      <c r="C28" s="11">
+        <v>1</v>
+      </c>
+      <c r="D28" s="19"/>
     </row>
     <row r="29" spans="1:4" ht="24.95" customHeight="1">
       <c r="A29" s="2">
@@ -2222,10 +2231,10 @@
       <c r="B29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="12">
-        <v>1</v>
-      </c>
-      <c r="D29" s="20"/>
+      <c r="C29" s="11">
+        <v>1</v>
+      </c>
+      <c r="D29" s="19"/>
     </row>
     <row r="30" spans="1:4" ht="24.95" customHeight="1">
       <c r="A30" s="2">
@@ -2234,10 +2243,10 @@
       <c r="B30" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="11">
         <v>1.5</v>
       </c>
-      <c r="D30" s="20"/>
+      <c r="D30" s="19"/>
     </row>
     <row r="31" spans="1:4" ht="24.95" customHeight="1">
       <c r="A31" s="2">
@@ -2246,10 +2255,10 @@
       <c r="B31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="12">
-        <v>1</v>
-      </c>
-      <c r="D31" s="20"/>
+      <c r="C31" s="11">
+        <v>1</v>
+      </c>
+      <c r="D31" s="19"/>
     </row>
     <row r="32" spans="1:4" ht="24.95" customHeight="1">
       <c r="A32" s="2">
@@ -2258,10 +2267,10 @@
       <c r="B32" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="12">
-        <v>1</v>
-      </c>
-      <c r="D32" s="20"/>
+      <c r="C32" s="11">
+        <v>1</v>
+      </c>
+      <c r="D32" s="19"/>
     </row>
     <row r="33" spans="1:4" ht="24.95" customHeight="1">
       <c r="A33" s="2">
@@ -2270,10 +2279,10 @@
       <c r="B33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="D33" s="20"/>
+      <c r="C33" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="19"/>
     </row>
     <row r="34" spans="1:4" ht="24.95" customHeight="1">
       <c r="A34" s="2">
@@ -2282,10 +2291,10 @@
       <c r="B34" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="12">
-        <v>1</v>
-      </c>
-      <c r="D34" s="20"/>
+      <c r="C34" s="11">
+        <v>1</v>
+      </c>
+      <c r="D34" s="19"/>
     </row>
     <row r="35" spans="1:4" ht="24.95" customHeight="1">
       <c r="A35" s="2">
@@ -2294,10 +2303,10 @@
       <c r="B35" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="11">
         <v>0.2</v>
       </c>
-      <c r="D35" s="20"/>
+      <c r="D35" s="19"/>
     </row>
     <row r="36" spans="1:4" ht="24.95" customHeight="1">
       <c r="A36" s="2">
@@ -2306,10 +2315,10 @@
       <c r="B36" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="11">
         <v>0.3</v>
       </c>
-      <c r="D36" s="20"/>
+      <c r="D36" s="19"/>
     </row>
     <row r="37" spans="1:4" ht="24.95" customHeight="1">
       <c r="A37" s="2">
@@ -2318,10 +2327,10 @@
       <c r="B37" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="D37" s="20"/>
+      <c r="C37" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:4" ht="24.95" customHeight="1">
       <c r="A38" s="2">
@@ -2330,10 +2339,10 @@
       <c r="B38" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="12">
-        <v>1</v>
-      </c>
-      <c r="D38" s="20"/>
+      <c r="C38" s="11">
+        <v>1</v>
+      </c>
+      <c r="D38" s="19"/>
     </row>
     <row r="39" spans="1:4" ht="24.95" customHeight="1">
       <c r="A39" s="2">
@@ -2342,10 +2351,10 @@
       <c r="B39" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="D39" s="20"/>
+      <c r="C39" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D39" s="19"/>
     </row>
     <row r="40" spans="1:4" ht="24.95" customHeight="1">
       <c r="A40" s="2">
@@ -2354,10 +2363,10 @@
       <c r="B40" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="12">
-        <v>1</v>
-      </c>
-      <c r="D40" s="20"/>
+      <c r="C40" s="11">
+        <v>1</v>
+      </c>
+      <c r="D40" s="19"/>
     </row>
     <row r="41" spans="1:4" ht="24.95" customHeight="1">
       <c r="A41" s="2">
@@ -2366,10 +2375,10 @@
       <c r="B41" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="D41" s="20"/>
+      <c r="C41" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D41" s="19"/>
     </row>
     <row r="42" spans="1:4" ht="24.95" customHeight="1">
       <c r="A42" s="2">
@@ -2378,10 +2387,10 @@
       <c r="B42" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="D42" s="20"/>
+      <c r="C42" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="19"/>
     </row>
     <row r="43" spans="1:4" ht="24.95" customHeight="1">
       <c r="A43" s="2">
@@ -2390,13 +2399,13 @@
       <c r="B43" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="12">
-        <v>1</v>
-      </c>
-      <c r="D43" s="20"/>
+      <c r="C43" s="11">
+        <v>1</v>
+      </c>
+      <c r="D43" s="19"/>
     </row>
     <row r="48" spans="1:4" ht="24.95" customHeight="1">
-      <c r="C48" s="14"/>
+      <c r="C48" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Files/GH/cshop/B2C商城-页面清单-V3.0.xlsx
+++ b/Files/GH/cshop/B2C商城-页面清单-V3.0.xlsx
@@ -768,9 +768,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -802,6 +799,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1126,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="24.95" customHeight="1"/>
@@ -1140,13 +1140,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="47.1" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" ht="30.95" customHeight="1">
       <c r="A2" s="9" t="s">
@@ -1172,10 +1172,10 @@
       <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="26">
-        <v>1</v>
-      </c>
-      <c r="D3" s="29">
+      <c r="C3" s="25">
+        <v>1</v>
+      </c>
+      <c r="D3" s="28">
         <v>3</v>
       </c>
       <c r="E3" s="15"/>
@@ -1187,10 +1187,10 @@
       <c r="B4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="25">
         <v>0.2</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="28">
         <v>0.5</v>
       </c>
       <c r="E4" s="15"/>
@@ -1202,10 +1202,10 @@
       <c r="B5" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="25">
         <v>0.3</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="28">
         <v>0.3</v>
       </c>
       <c r="E5" s="20" t="s">
@@ -1219,10 +1219,10 @@
       <c r="B6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="25">
         <v>0.2</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="28">
         <v>0.5</v>
       </c>
       <c r="E6" s="15"/>
@@ -1234,10 +1234,10 @@
       <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="25">
         <v>0.3</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="28">
         <v>0.5</v>
       </c>
       <c r="E7" s="15"/>
@@ -1249,10 +1249,10 @@
       <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="25">
         <v>0.4</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="28">
         <v>1</v>
       </c>
       <c r="E8" s="15"/>
@@ -1264,10 +1264,10 @@
       <c r="B9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="25">
         <v>0.1</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="28">
         <v>1</v>
       </c>
       <c r="E9" s="15"/>
@@ -1279,10 +1279,10 @@
       <c r="B10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="29">
+      <c r="C10" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="28">
         <v>1.5</v>
       </c>
       <c r="E10" s="15"/>
@@ -1294,10 +1294,10 @@
       <c r="B11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="25">
         <v>0.3</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="28">
         <v>1.5</v>
       </c>
       <c r="E11" s="15"/>
@@ -1309,10 +1309,10 @@
       <c r="B12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="29">
+      <c r="C12" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="28">
         <v>1.5</v>
       </c>
       <c r="E12" s="15"/>
@@ -1324,10 +1324,10 @@
       <c r="B13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="25">
         <v>0.2</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="28">
         <v>0.5</v>
       </c>
       <c r="E13" s="15"/>
@@ -1339,10 +1339,10 @@
       <c r="B14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="25">
         <v>0.4</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="28">
         <v>1</v>
       </c>
       <c r="E14" s="15"/>
@@ -1354,10 +1354,10 @@
       <c r="B15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="25">
         <v>0.3</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="28">
         <v>0.5</v>
       </c>
       <c r="E15" s="15"/>
@@ -1369,10 +1369,10 @@
       <c r="B16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="25">
         <v>0.3</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="28">
         <v>1</v>
       </c>
       <c r="E16" s="15"/>
@@ -1384,10 +1384,10 @@
       <c r="B17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="26">
         <v>0.1</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="28">
         <v>0.4</v>
       </c>
       <c r="E17" s="15"/>
@@ -1399,10 +1399,10 @@
       <c r="B18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="26">
         <v>0.2</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="28">
         <v>0.5</v>
       </c>
       <c r="E18" s="15"/>
@@ -1414,10 +1414,10 @@
       <c r="B19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="26">
         <v>0.2</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="28">
         <v>0.5</v>
       </c>
       <c r="E19" s="15"/>
@@ -1429,13 +1429,13 @@
       <c r="B20" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="26">
         <v>0.2</v>
       </c>
-      <c r="D20" s="29">
-        <v>1</v>
-      </c>
-      <c r="E20" s="32" t="s">
+      <c r="D20" s="28">
+        <v>1</v>
+      </c>
+      <c r="E20" s="31" t="s">
         <v>67</v>
       </c>
       <c r="F20" s="14"/>
@@ -1453,7 +1453,7 @@
       <c r="D21" s="23">
         <v>0.5</v>
       </c>
-      <c r="E21" s="32"/>
+      <c r="E21" s="31"/>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" ht="24.95" customHeight="1">
@@ -1469,7 +1469,7 @@
       <c r="D22" s="23">
         <v>0.5</v>
       </c>
-      <c r="E22" s="32"/>
+      <c r="E22" s="31"/>
     </row>
     <row r="23" spans="1:6" ht="24.95" customHeight="1">
       <c r="A23" s="6">
@@ -1484,7 +1484,7 @@
       <c r="D23" s="23">
         <v>0.5</v>
       </c>
-      <c r="E23" s="32"/>
+      <c r="E23" s="31"/>
     </row>
     <row r="24" spans="1:6" ht="24.95" customHeight="1">
       <c r="A24" s="6">
@@ -1499,7 +1499,7 @@
       <c r="D24" s="23">
         <v>1</v>
       </c>
-      <c r="E24" s="32"/>
+      <c r="E24" s="31"/>
     </row>
     <row r="25" spans="1:6" ht="24.95" customHeight="1">
       <c r="A25" s="6">
@@ -1511,7 +1511,7 @@
       <c r="C25" s="6">
         <v>0.2</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="28">
         <v>0.5</v>
       </c>
       <c r="E25" s="15"/>
@@ -1526,7 +1526,7 @@
       <c r="C26" s="6">
         <v>0.1</v>
       </c>
-      <c r="D26" s="29">
+      <c r="D26" s="28">
         <v>0.5</v>
       </c>
       <c r="E26" s="15"/>
@@ -1541,7 +1541,7 @@
       <c r="C27" s="6">
         <v>0.2</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D27" s="28">
         <v>0.5</v>
       </c>
       <c r="E27" s="15"/>
@@ -1556,7 +1556,7 @@
       <c r="C28" s="6">
         <v>0.2</v>
       </c>
-      <c r="D28" s="29">
+      <c r="D28" s="28">
         <v>0.5</v>
       </c>
       <c r="E28" s="15"/>
@@ -1571,37 +1571,37 @@
       <c r="C29" s="6">
         <v>0.2</v>
       </c>
-      <c r="D29" s="29">
+      <c r="D29" s="28">
         <v>0.5</v>
       </c>
       <c r="E29" s="15"/>
     </row>
     <row r="30" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A30" s="31">
+      <c r="A30" s="30">
         <v>28</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="31">
+      <c r="C30" s="30">
         <v>0.2</v>
       </c>
-      <c r="D30" s="30">
+      <c r="D30" s="29">
         <v>0.5</v>
       </c>
       <c r="E30" s="15"/>
     </row>
     <row r="31" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A31" s="31">
+      <c r="A31" s="30">
         <v>29</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="30">
         <v>0.1</v>
       </c>
-      <c r="D31" s="30">
+      <c r="D31" s="29">
         <v>0.5</v>
       </c>
       <c r="E31" s="15"/>
@@ -1616,7 +1616,7 @@
       <c r="C32" s="6">
         <v>0.3</v>
       </c>
-      <c r="D32" s="29">
+      <c r="D32" s="28">
         <v>1</v>
       </c>
       <c r="E32" s="15"/>
@@ -1631,7 +1631,7 @@
       <c r="C33" s="6">
         <v>0.2</v>
       </c>
-      <c r="D33" s="29">
+      <c r="D33" s="28">
         <v>0.5</v>
       </c>
       <c r="E33" s="15"/>
@@ -1646,7 +1646,7 @@
       <c r="C34" s="6">
         <v>0.2</v>
       </c>
-      <c r="D34" s="29">
+      <c r="D34" s="28">
         <v>0.5</v>
       </c>
       <c r="E34" s="15"/>
@@ -1661,7 +1661,7 @@
       <c r="C35" s="6">
         <v>0.2</v>
       </c>
-      <c r="D35" s="29">
+      <c r="D35" s="28">
         <v>0.5</v>
       </c>
       <c r="E35" s="15"/>
@@ -1676,7 +1676,7 @@
       <c r="C36" s="6">
         <v>0.1</v>
       </c>
-      <c r="D36" s="29">
+      <c r="D36" s="28">
         <v>0.5</v>
       </c>
       <c r="E36" s="15"/>
@@ -1691,7 +1691,7 @@
       <c r="C37" s="6">
         <v>0.1</v>
       </c>
-      <c r="D37" s="29">
+      <c r="D37" s="28">
         <v>0.5</v>
       </c>
       <c r="E37" s="15"/>
@@ -1706,7 +1706,7 @@
       <c r="C38" s="6">
         <v>0.1</v>
       </c>
-      <c r="D38" s="29">
+      <c r="D38" s="28">
         <v>0.5</v>
       </c>
       <c r="E38" s="15"/>
@@ -1721,7 +1721,7 @@
       <c r="C39" s="6">
         <v>0.1</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D39" s="28">
         <v>0.5</v>
       </c>
       <c r="E39" s="15"/>
@@ -1736,7 +1736,7 @@
       <c r="C40" s="6">
         <v>0.2</v>
       </c>
-      <c r="D40" s="29">
+      <c r="D40" s="28">
         <v>0.5</v>
       </c>
       <c r="E40" s="15"/>
@@ -1748,10 +1748,10 @@
       <c r="B41" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="28">
+      <c r="C41" s="27">
         <v>0.2</v>
       </c>
-      <c r="D41" s="29">
+      <c r="D41" s="28">
         <v>0.5</v>
       </c>
       <c r="E41" s="15"/>
@@ -1763,10 +1763,10 @@
       <c r="B42" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="28">
+      <c r="C42" s="27">
         <v>0.2</v>
       </c>
-      <c r="D42" s="29">
+      <c r="D42" s="28">
         <v>0.5</v>
       </c>
       <c r="E42" s="15"/>
@@ -1778,10 +1778,10 @@
       <c r="B43" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="28">
+      <c r="C43" s="27">
         <v>0.3</v>
       </c>
-      <c r="D43" s="29">
+      <c r="D43" s="28">
         <v>1</v>
       </c>
       <c r="E43" s="15"/>
@@ -1793,10 +1793,10 @@
       <c r="B44" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="28">
+      <c r="C44" s="27">
         <v>0.2</v>
       </c>
-      <c r="D44" s="25">
+      <c r="D44" s="36">
         <v>0.5</v>
       </c>
       <c r="E44" s="15"/>
@@ -1808,10 +1808,10 @@
       <c r="B45" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="28">
+      <c r="C45" s="27">
         <v>0.2</v>
       </c>
-      <c r="D45" s="25">
+      <c r="D45" s="36">
         <v>0.5</v>
       </c>
       <c r="E45" s="15"/>
@@ -1823,10 +1823,10 @@
       <c r="B46" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="28">
+      <c r="C46" s="27">
         <v>0.1</v>
       </c>
-      <c r="D46" s="25">
+      <c r="D46" s="36">
         <v>0.3</v>
       </c>
       <c r="E46" s="15"/>
@@ -1838,10 +1838,10 @@
       <c r="B47" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="28">
+      <c r="C47" s="27">
         <v>0.3</v>
       </c>
-      <c r="D47" s="25">
+      <c r="D47" s="36">
         <v>1</v>
       </c>
       <c r="E47" s="15"/>
@@ -1887,12 +1887,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4" ht="24.95" customHeight="1">
       <c r="A2" s="10" t="s">
@@ -2160,7 +2160,7 @@
       <c r="C23" s="18">
         <v>1</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="31" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2174,7 +2174,7 @@
       <c r="C24" s="18">
         <v>0.5</v>
       </c>
-      <c r="D24" s="32"/>
+      <c r="D24" s="31"/>
     </row>
     <row r="25" spans="1:4" ht="24.95" customHeight="1">
       <c r="A25" s="2">
@@ -2186,7 +2186,7 @@
       <c r="C25" s="18">
         <v>0.5</v>
       </c>
-      <c r="D25" s="32"/>
+      <c r="D25" s="31"/>
     </row>
     <row r="26" spans="1:4" ht="24.95" customHeight="1">
       <c r="A26" s="2">
@@ -2198,7 +2198,7 @@
       <c r="C26" s="18">
         <v>0.5</v>
       </c>
-      <c r="D26" s="32"/>
+      <c r="D26" s="31"/>
     </row>
     <row r="27" spans="1:4" ht="24.95" customHeight="1">
       <c r="A27" s="2">
@@ -2210,7 +2210,7 @@
       <c r="C27" s="18">
         <v>1</v>
       </c>
-      <c r="D27" s="32"/>
+      <c r="D27" s="31"/>
     </row>
     <row r="28" spans="1:4" ht="24.95" customHeight="1">
       <c r="A28" s="2">
